--- a/data_dictionary/v1.0/data_dictionary-1_0.xlsx
+++ b/data_dictionary/v1.0/data_dictionary-1_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodb\Documents\Projects\hive\BiomarkerKB\data_dictionary\v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66872073-BA2A-4917-8123-FC3D1F02FE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834072D-87DF-435C-A9D7-42BCDD83DB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="4830" windowWidth="21270" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="3540" windowWidth="21270" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>description</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>cancer (DOID:162)</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>^[a-zA-Z]+:rs\d+$</t>
+  </si>
+  <si>
+    <t>^.*$</t>
+  </si>
+  <si>
+    <t>^.+ \(UN:\d+\)$</t>
+  </si>
+  <si>
+    <t>^\d+-\d+$</t>
+  </si>
+  <si>
+    <t>^.+ \(DOID:[^\)]+\)$</t>
+  </si>
+  <si>
+    <t>^.+ \| .+$</t>
   </si>
 </sst>
 </file>
@@ -462,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +495,7 @@
     <col min="2" max="2" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -490,8 +511,11 @@
       <c r="E1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -504,8 +528,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -521,8 +548,11 @@
       <c r="E3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -538,8 +568,11 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -555,8 +588,11 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -572,8 +608,11 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -589,8 +628,11 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -606,8 +648,11 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -623,8 +668,11 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -640,8 +688,11 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -657,8 +708,11 @@
       <c r="E11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -673,6 +727,9 @@
       </c>
       <c r="E12" t="s">
         <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
